--- a/biology/Zoologie/Hylarana_montivaga/Hylarana_montivaga.xlsx
+++ b/biology/Zoologie/Hylarana_montivaga/Hylarana_montivaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-"Hylarana" montivaga est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis)[1].
-Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015[2], cette espèce a été exclue de ce genre sans qu'il soit possible de la placée dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
+"Hylarana" montivaga est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis).
+Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015, cette espèce a été exclue de ce genre sans qu'il soit possible de la placée dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre, :
 dans le sud-est de la Thaïlande ;
 au Viêt Nam dans la province de Lâm Đồng sur le plateau Langbian.
 Sa présence est incertaine au Cambodge et au Laos.
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Smith, 1921 : New or Little-known Reptiles and Batrachians from Southern Annam (Indo-China). Proceedings of the Zoological Society of London, vol. 1921, p. 423-440 (texte intégral).</t>
         </is>
